--- a/REPORTE SEMANAL 3 DANIELA MENDEZ RAIZ.xlsx
+++ b/REPORTE SEMANAL 3 DANIELA MENDEZ RAIZ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\becario1_ti\Downloads\REPORTES ESCUELA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\becario2_TI\Documents\Reporte semanal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8AE343D-74E6-48FD-B1F5-8EF2D33635ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAEA80F-743A-4E70-9209-4F71C36FB034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="12210" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REPORTE SEMANAL" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>TECNOLOGICO DE ESTUDIOS SUPERIORES DE VILLLA GUERRERO</t>
   </si>
@@ -82,19 +82,19 @@
     <t>9:30 am - 5:00 pm</t>
   </si>
   <si>
-    <t>Se comenzo a realizar las respectivas correcciones de la fase de diseño en lo cual corresponde el rediseño de el diagrama de caso de uso, diagrama secuencial y la arquitectura del cliente-servidor.</t>
-  </si>
-  <si>
-    <t>Se le dio continuidad a las correcciones de misma manera de la fase de diseño retomando el diagrama entidad-relacion, el diagrama relacional, y de igual forma corrigiendo las interfaces a las que se les indicaron observaciones.</t>
-  </si>
-  <si>
-    <t>Contemplando los puntos que se tomaron en la revision se les dio correccion y ademas se añadieron nuevas ventanas para las funciones extra que se indicaron.</t>
-  </si>
-  <si>
-    <t>Se realizo la codificacion de la base de datos que se estara ocupando para el sistema web.</t>
-  </si>
-  <si>
-    <t>Se dio una revision detallada a los puntos que se les hizo correccion para verificar que este correcto conforme a las peticiones e indicaciones vistas previamente.</t>
+    <t>Se comenzó a realizar las respectivas correcciones de la fase de diseño en lo cual corresponde el rediseño del diagrama de caso de uso, diagrama secuencial y la arquitectura del cliente-servidor.</t>
+  </si>
+  <si>
+    <t>Se le dio continuidad a las correcciones de misma manera de la fase de diseño retomando el diagrama entidad-relación, el diagrama relacional, y de igual forma corrigiendo las interfaces a las que se les indicaron observaciones.</t>
+  </si>
+  <si>
+    <t>Contemplando los puntos que se tomaron en la revisión se les dio corrección y además se añadieron nuevas ventanas para las funciones extra que se indicaron.</t>
+  </si>
+  <si>
+    <t>Se realizo la codificación de la base de datos que se estará ocupando para el sistema web.</t>
+  </si>
+  <si>
+    <t>Se dio una revisión detallada a los puntos que se les hizo corrección para verificar que este correcto conforme a las peticiones e indicaciones vistas previamente.</t>
   </si>
 </sst>
 </file>
@@ -589,11 +589,50 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -610,92 +649,53 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -865,6 +865,156 @@
             </a14:hiddenLine>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>742950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B948F2E-1258-9F40-AF16-01B8805359C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="2200275"/>
+          <a:ext cx="3873500" cy="2905125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1768473</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>552450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>747714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56872871-8F6E-097B-0515-501BBF82DD24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5292723" y="2228850"/>
+          <a:ext cx="3841752" cy="2881314"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22873</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A0BEB00-2780-FF67-5B4C-4A01B92C5C55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7776223" y="66674"/>
+          <a:ext cx="1615427" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1140,8 +1290,8 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,56 +1306,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="21"/>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="16"/>
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="10"/>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
+      <c r="A2" s="17"/>
       <c r="B2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="24">
         <v>3</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="26"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="25">
         <v>45931</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="27"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -1224,14 +1374,14 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -1240,10 +1390,10 @@
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="8" t="s">
         <v>7</v>
       </c>
@@ -1252,72 +1402,72 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="14">
         <v>45925</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="20"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="46">
+      <c r="A10" s="31"/>
+      <c r="B10" s="15">
         <v>45926</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="48"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="46">
+      <c r="A11" s="31"/>
+      <c r="B11" s="15">
         <v>45929</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="49"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="46">
+      <c r="A12" s="31"/>
+      <c r="B12" s="15">
         <v>45930</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="49"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="46">
+      <c r="A13" s="32"/>
+      <c r="B13" s="15">
         <v>45931</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="49"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="6" t="s">
         <v>17</v>
       </c>
@@ -1348,26 +1498,19 @@
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="16"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="16"/>
+      <c r="F18" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C4:E4"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="C12:D12"/>
@@ -1378,6 +1521,13 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" r:id="rId1"/>
@@ -1387,10 +1537,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,56 +1558,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="21"/>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="16"/>
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="10"/>
-      <c r="F1" s="25" t="s">
-        <v>12</v>
-      </c>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
+      <c r="A2" s="17"/>
       <c r="B2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="24">
         <v>3</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="26"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="25">
         <v>45931</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="27"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -1473,66 +1624,66 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
     </row>
     <row r="9" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="36"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
     </row>
     <row r="11" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="36"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
     </row>
     <row r="12" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
     </row>
     <row r="13" spans="1:6" ht="70.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="45"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -1567,16 +1718,16 @@
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="30"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="30"/>
+      <c r="F19" s="36"/>
     </row>
     <row r="20" spans="1:6" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
@@ -1596,11 +1747,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A9:F13"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A7:F7"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="F1:F4"/>
@@ -1608,8 +1754,14 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A9:F13"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>